--- a/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en C.Valenciana</t>
+          <t>Consumo de ansiolíticos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6537</t>
+          <t>5454</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9066</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15567</t>
+          <t>15171</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12685</t>
+          <t>12262</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19270</t>
+          <t>18789</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>22105</t>
+          <t>20625</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17887</t>
+          <t>17296</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26423</t>
+          <t>24530</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81527</t>
+          <t>77088</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78998</t>
+          <t>75036</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83584</t>
+          <t>78650</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>112177</t>
+          <t>106281</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>108474</t>
+          <t>102663</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>115059</t>
+          <t>109190</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>193704</t>
+          <t>183369</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>189386</t>
+          <t>179464</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>197922</t>
+          <t>186698</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,52%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19477</t>
+          <t>17911</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15675</t>
+          <t>14893</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23778</t>
+          <t>21974</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32914</t>
+          <t>32260</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28545</t>
+          <t>27739</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38218</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>52391</t>
+          <t>50171</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46407</t>
+          <t>44414</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>59405</t>
+          <t>57182</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>434014</t>
+          <t>443768</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>429713</t>
+          <t>439705</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>437816</t>
+          <t>446786</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>398888</t>
+          <t>412097</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>393584</t>
+          <t>407175</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>403257</t>
+          <t>416618</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>832902</t>
+          <t>855864</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>825888</t>
+          <t>848853</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>838886</t>
+          <t>861621</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,1%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6292</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4797</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>9966</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>8523</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5478</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10543</t>
+          <t>11187</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13688</t>
+          <t>15418</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10743</t>
+          <t>12078</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17283</t>
+          <t>19336</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>145333</t>
+          <t>168666</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142624</t>
+          <t>165595</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>147337</t>
+          <t>170764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>186841</t>
+          <t>219471</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>183694</t>
+          <t>216807</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>188759</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>332175</t>
+          <t>388137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>328580</t>
+          <t>384219</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>335120</t>
+          <t>391477</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>97,01%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27110</t>
+          <t>26016</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38211</t>
+          <t>35483</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55877</t>
+          <t>55954</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49605</t>
+          <t>50434</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62682</t>
+          <t>62423</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>88184</t>
+          <t>86214</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>80492</t>
+          <t>79290</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>97527</t>
+          <t>94224</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>660874</t>
+          <t>689521</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>654970</t>
+          <t>684298</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>666071</t>
+          <t>693765</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>697907</t>
+          <t>737849</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>691102</t>
+          <t>731380</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>704179</t>
+          <t>743369</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1358781</t>
+          <t>1427370</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1349438</t>
+          <t>1419360</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1366473</t>
+          <t>1434294</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,76%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13912</t>
+          <t>13959</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29007</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>62132</t>
+          <t>62387</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>93512</t>
+          <t>91839</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>79830</t>
+          <t>81020</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>113921</t>
+          <t>117975</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>198800</t>
+          <t>197919</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>213895</t>
+          <t>213848</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>300630</t>
+          <t>302303</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>332010</t>
+          <t>331755</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>508028</t>
+          <t>503974</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>542119</t>
+          <t>540929</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>86,97%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30722</t>
+          <t>31293</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78008</t>
+          <t>77297</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52134</t>
+          <t>48959</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>107752</t>
+          <t>108526</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>99141</t>
+          <t>101172</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>175342</t>
+          <t>174434</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1331385</t>
+          <t>1332096</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1378671</t>
+          <t>1378100</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1278059</t>
+          <t>1277285</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1333677</t>
+          <t>1336852</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2619862</t>
+          <t>2620770</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2696063</t>
+          <t>2694032</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,38%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9411</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23797</t>
+          <t>25052</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>8950</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22678</t>
+          <t>22014</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22003</t>
+          <t>22089</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42211</t>
+          <t>42391</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>436004</t>
+          <t>434749</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>450179</t>
+          <t>450390</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>420696</t>
+          <t>421360</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>433564</t>
+          <t>434424</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>860964</t>
+          <t>860784</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881172</t>
+          <t>881086</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62455</t>
+          <t>59772</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>114316</t>
+          <t>113875</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>122029</t>
+          <t>123877</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>205265</t>
+          <t>205616</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>207202</t>
+          <t>210277</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>306712</t>
+          <t>306447</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1982685</t>
+          <t>1983126</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2034546</t>
+          <t>2037229</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2018062</t>
+          <t>2017711</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2101298</t>
+          <t>2099450</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4013616</t>
+          <t>4013881</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4113126</t>
+          <t>4110051</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,13%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5548</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19461</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,82 +5589,82 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32031</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23037</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43361</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>42981</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>32590</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>56840</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>19,75%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32031</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23459</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>44169</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>26,9%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>19,7%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>37,09%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>42981</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>32291</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>57636</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>19,75%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79094</t>
+          <t>78330</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93007</t>
+          <t>92696</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,82 +5702,82 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>79,48%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94,06%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>87049</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75719</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96043</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>63,59%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>80,65%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>174654</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>160795</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>185045</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>80,25%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>94,37%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>87049</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>74911</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>95621</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>73,1%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>62,91%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>80,3%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>174654</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>159999</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>185344</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>80,25%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>85,03%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18618</t>
+          <t>18569</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32083</t>
+          <t>32476</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37937</t>
+          <t>36213</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54807</t>
+          <t>54162</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58770</t>
+          <t>59071</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82135</t>
+          <t>81362</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,45%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>324805</t>
+          <t>324412</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>338270</t>
+          <t>338319</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>299113</t>
+          <t>299758</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>315983</t>
+          <t>317707</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>628673</t>
+          <t>629446</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>652038</t>
+          <t>651737</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>91,69%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17477</t>
+          <t>17026</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13698</t>
+          <t>13426</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25035</t>
+          <t>24157</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24089</t>
+          <t>23503</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38709</t>
+          <t>38437</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>206462</t>
+          <t>206913</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>215855</t>
+          <t>215912</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>257156</t>
+          <t>258034</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>268493</t>
+          <t>268765</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>467421</t>
+          <t>467693</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>482041</t>
+          <t>482627</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39422</t>
+          <t>37738</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59935</t>
+          <t>58419</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>80820</t>
+          <t>82645</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>111603</t>
+          <t>110406</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>125750</t>
+          <t>125102</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>164686</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>619446</t>
+          <t>620962</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>639959</t>
+          <t>641643</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>643589</t>
+          <t>644786</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>674372</t>
+          <t>672547</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1272739</t>
+          <t>1269887</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1308823</t>
+          <t>1309471</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,28%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5454</t>
+          <t>22669</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>15486</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>32750</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15171</t>
+          <t>78457</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12262</t>
+          <t>66523</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18789</t>
+          <t>92174</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>20625</t>
+          <t>101126</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17296</t>
+          <t>85514</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>24530</t>
+          <t>118916</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77088</t>
+          <t>232228</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75036</t>
+          <t>222147</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78650</t>
+          <t>239411</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>570</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>106281</t>
+          <t>353131</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>102663</t>
+          <t>339414</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>109190</t>
+          <t>365065</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>832</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>183369</t>
+          <t>585359</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>179464</t>
+          <t>567569</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>186698</t>
+          <t>600971</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>87,54%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>431588</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>431588</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>431588</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>982</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>686485</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>686485</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>686485</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>59174</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14893</t>
+          <t>44729</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21974</t>
+          <t>77121</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32260</t>
+          <t>92439</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27739</t>
+          <t>76804</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37182</t>
+          <t>109441</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>196</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>50171</t>
+          <t>151613</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>44414</t>
+          <t>129508</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57182</t>
+          <t>173793</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>443768</t>
+          <t>1228513</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>439705</t>
+          <t>1210566</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>446786</t>
+          <t>1242958</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2311</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>412097</t>
+          <t>1178302</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>407175</t>
+          <t>1161300</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>416618</t>
+          <t>1193937</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>855864</t>
+          <t>2406815</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>848853</t>
+          <t>2384635</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>861621</t>
+          <t>2428920</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>94,94%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>15234</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4797</t>
+          <t>9396</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9966</t>
+          <t>25249</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8523</t>
+          <t>17562</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t>10560</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11187</t>
+          <t>24458</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15418</t>
+          <t>32796</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12078</t>
+          <t>24055</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19336</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>168666</t>
+          <t>494645</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>165595</t>
+          <t>484630</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>170764</t>
+          <t>500483</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>219471</t>
+          <t>478344</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>216807</t>
+          <t>471448</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>221809</t>
+          <t>485346</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>388137</t>
+          <t>972990</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>384219</t>
+          <t>960386</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>391477</t>
+          <t>981731</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>97077</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26016</t>
+          <t>80583</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35483</t>
+          <t>117326</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>284</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55954</t>
+          <t>188458</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50434</t>
+          <t>166177</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62423</t>
+          <t>211767</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>389</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>86214</t>
+          <t>285535</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>79290</t>
+          <t>256343</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>94224</t>
+          <t>316737</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3879</t>
+          <t>1782</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>689521</t>
+          <t>1955387</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>684298</t>
+          <t>1935138</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>693765</t>
+          <t>1971881</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>737849</t>
+          <t>2009777</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>731380</t>
+          <t>1986468</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>743369</t>
+          <t>2032058</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8005</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1427370</t>
+          <t>3965163</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1419360</t>
+          <t>3933961</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1434294</t>
+          <t>3994355</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>93,97%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198235</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198235</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198235</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250698</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250698</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250698</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20637</t>
+          <t>10949</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13959</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29888</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>74410</t>
+          <t>32031</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>62387</t>
+          <t>23037</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>91839</t>
+          <t>43361</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>95047</t>
+          <t>42981</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>81020</t>
+          <t>32590</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>117975</t>
+          <t>56840</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>207170</t>
+          <t>87606</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>197919</t>
+          <t>78330</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>213848</t>
+          <t>92696</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>319732</t>
+          <t>87049</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>302303</t>
+          <t>75719</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>331755</t>
+          <t>96043</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>63,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>404</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>526902</t>
+          <t>174654</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>503974</t>
+          <t>160795</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>540929</t>
+          <t>185045</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>85,03%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394142</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394142</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394142</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>621949</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>621949</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>621949</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56025</t>
+          <t>24811</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31293</t>
+          <t>18569</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77297</t>
+          <t>32476</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83780</t>
+          <t>44940</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48959</t>
+          <t>36213</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>108526</t>
+          <t>54162</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>156</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>139805</t>
+          <t>69751</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>101172</t>
+          <t>59071</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>174434</t>
+          <t>81362</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>11,45%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>738</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1353368</t>
+          <t>332077</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1332096</t>
+          <t>324412</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1378100</t>
+          <t>338319</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>708</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1302031</t>
+          <t>308980</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1277285</t>
+          <t>299758</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1336852</t>
+          <t>317707</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2655399</t>
+          <t>641057</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2620770</t>
+          <t>629446</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2694032</t>
+          <t>651737</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>91,69%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>353920</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>353920</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>353920</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710808</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710808</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710808</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15176</t>
+          <t>11934</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9411</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25052</t>
+          <t>17026</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15266</t>
+          <t>18441</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8950</t>
+          <t>13426</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22014</t>
+          <t>24157</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30441</t>
+          <t>30375</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22089</t>
+          <t>23503</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>42391</t>
+          <t>38437</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>444625</t>
+          <t>212005</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>434749</t>
+          <t>206913</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>450390</t>
+          <t>215912</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>707</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>428108</t>
+          <t>263750</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>421360</t>
+          <t>258034</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>434424</t>
+          <t>268765</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>872734</t>
+          <t>475755</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>860784</t>
+          <t>467693</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881086</t>
+          <t>482627</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>641</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223939</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223939</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223939</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>760</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506130</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506130</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506130</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91838</t>
+          <t>47694</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59772</t>
+          <t>37738</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>113875</t>
+          <t>58419</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>214</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>173456</t>
+          <t>95413</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>123877</t>
+          <t>82645</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>205616</t>
+          <t>110406</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>327</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>265293</t>
+          <t>143107</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>210277</t>
+          <t>125102</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>306447</t>
+          <t>164686</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2005163</t>
+          <t>631687</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1983126</t>
+          <t>620962</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2037229</t>
+          <t>641643</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2049871</t>
+          <t>659779</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2017711</t>
+          <t>644786</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2099450</t>
+          <t>672547</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4055035</t>
+          <t>1291466</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4013881</t>
+          <t>1269887</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4110051</t>
+          <t>1309471</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>91,28%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679381</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679381</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679381</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223327</t>
+          <t>755192</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223327</t>
+          <t>755192</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223327</t>
+          <t>755192</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320328</t>
+          <t>1434573</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320328</t>
+          <t>1434573</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320328</t>
+          <t>1434573</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10949</t>
+          <t>5454</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20225</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32031</t>
+          <t>15171</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23037</t>
+          <t>12262</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43361</t>
+          <t>18789</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>42981</t>
+          <t>20625</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32590</t>
+          <t>17296</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>56840</t>
+          <t>24530</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87606</t>
+          <t>77088</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78330</t>
+          <t>75036</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92696</t>
+          <t>78650</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>663</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87049</t>
+          <t>106281</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75719</t>
+          <t>102663</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>96043</t>
+          <t>109190</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>174654</t>
+          <t>183369</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>160795</t>
+          <t>179464</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>185045</t>
+          <t>186698</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>91,52%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24811</t>
+          <t>17911</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18569</t>
+          <t>14893</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32476</t>
+          <t>21974</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44940</t>
+          <t>32260</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36213</t>
+          <t>27739</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54162</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>301</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69751</t>
+          <t>50171</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>59071</t>
+          <t>44414</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>81362</t>
+          <t>57182</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>332077</t>
+          <t>443768</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>324412</t>
+          <t>439705</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>338319</t>
+          <t>446786</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>308980</t>
+          <t>412097</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>299758</t>
+          <t>407175</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>317707</t>
+          <t>416618</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>641057</t>
+          <t>855864</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>629446</t>
+          <t>848853</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>651737</t>
+          <t>861621</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>95,1%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>353920</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>353920</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>353920</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>710808</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>710808</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>710808</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11934</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>4797</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17026</t>
+          <t>9966</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18441</t>
+          <t>8523</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24157</t>
+          <t>11187</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30375</t>
+          <t>15418</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>23503</t>
+          <t>12078</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38437</t>
+          <t>19336</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>872</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>212005</t>
+          <t>168666</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>206913</t>
+          <t>165595</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>215912</t>
+          <t>170764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>263750</t>
+          <t>219471</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>258034</t>
+          <t>216807</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>268765</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>475755</t>
+          <t>388137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>467693</t>
+          <t>384219</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>482627</t>
+          <t>391477</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>97,01%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>223939</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>223939</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>223939</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>506130</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>506130</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>506130</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47694</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37738</t>
+          <t>26016</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58419</t>
+          <t>35483</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95413</t>
+          <t>55954</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82645</t>
+          <t>50434</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>110406</t>
+          <t>62423</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>143107</t>
+          <t>86214</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>125102</t>
+          <t>79290</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>164686</t>
+          <t>94224</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>631687</t>
+          <t>689521</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>620962</t>
+          <t>684298</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>641643</t>
+          <t>693765</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>659779</t>
+          <t>737849</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>644786</t>
+          <t>731380</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>672547</t>
+          <t>743369</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>8005</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1291466</t>
+          <t>1427370</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1269887</t>
+          <t>1419360</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1309471</t>
+          <t>1434294</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>94,76%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>679381</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>679381</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>679381</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>755192</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>755192</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>755192</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1434573</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1434573</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1434573</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
